--- a/Configs/NPCResponse.xlsx
+++ b/Configs/NPCResponse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D411692-70B3-44C5-8E6C-607FABA73EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2002D13D-46F0-465E-9FBC-F64CF81BBC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11813" yWindow="10140" windowWidth="19192" windowHeight="10792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="600" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -75,6 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全治愈！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>responseType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,11 +130,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还行吧能接受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬！</t>
+    <t>完全治愈！太感谢了大夫！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢大夫~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像还是有点不舒服……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生，这不药不太对吧……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗屁赤脚郎中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩！您真是医术高明！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让您费心了~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,19 +190,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -490,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -511,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -522,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -541,7 +546,7 @@
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -574,9 +579,53 @@
         <v>100004</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>100005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>100006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>100007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>100008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
     </row>
